--- a/S2_Burndown.xlsx
+++ b/S2_Burndown.xlsx
@@ -304,43 +304,43 @@
                   <c:v>20.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>18.02</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.02</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.02</c:v>
+                  <c:v>18.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16.02</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.02</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.02</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7.02</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.02</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.0199999999999996</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0199999999999996</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0199999999999996</c:v>
+                  <c:v>3.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0199999999999996</c:v>
+                  <c:v>3.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0199999999999996</c:v>
+                  <c:v>3.0199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1794,7 @@
         <v>1.43</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="F4">
         <f>(SUM(B3:B16) - SUM(C$3:C4))</f>
-        <v>18.02</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>1.43</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F5">
         <f>(SUM(B3:B16) - SUM(C$3:C5))</f>
-        <v>17.02</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F6">
         <f>(SUM(B3:B16) - SUM(C$3:C6))</f>
-        <v>17.02</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>1.43</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F7">
         <f>(SUM(B3:B16) - SUM(C$3:C7))</f>
-        <v>16.02</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>1.43</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="F8">
         <f>(SUM(B3:B16) - SUM(C$3:C8))</f>
-        <v>13.02</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="F9">
         <f>(SUM(B3:B16) - SUM(C$3:C9))</f>
-        <v>11.02</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F10">
         <f>(SUM(B3:B16) - SUM(C$3:C10))</f>
-        <v>7.02</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>1.43</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F11">
         <f>(SUM(B3:B16) - SUM(C$3:C11))</f>
-        <v>6.02</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="F12">
         <f>(SUM(B3:B16) - SUM(C$3:C12))</f>
-        <v>4.0199999999999996</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>1.43</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F13">
         <f>(SUM(B3:B16) - SUM(C$3:C13))</f>
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,13 +1983,16 @@
       <c r="B14">
         <v>1.43</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>2.8400000000000034</v>
       </c>
       <c r="F14">
         <f>(SUM(B3:B16) - SUM(C$3:C14))</f>
-        <v>2.0199999999999996</v>
+        <v>3.0199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,7 +2008,7 @@
       </c>
       <c r="F15">
         <f>(SUM(B3:B16) - SUM(C$3:C15))</f>
-        <v>2.0199999999999996</v>
+        <v>3.0199999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,7 +2023,7 @@
       </c>
       <c r="F16">
         <f>(SUM(B3:B16) - SUM(C$3:C16))</f>
-        <v>2.0199999999999996</v>
+        <v>3.0199999999999996</v>
       </c>
     </row>
   </sheetData>
